--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nlgn1-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nlgn1-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Nlgn1</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>0.056076</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1532734190501181</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1532734190501181</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04996866666666666</v>
+        <v>0.003710666666666666</v>
       </c>
       <c r="N2">
-        <v>0.149906</v>
+        <v>0.011132</v>
       </c>
       <c r="O2">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="P2">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="Q2">
-        <v>0.0009340143173333333</v>
+        <v>6.935978133333333E-05</v>
       </c>
       <c r="R2">
-        <v>0.008406128855999999</v>
+        <v>0.000624238032</v>
       </c>
       <c r="S2">
-        <v>0.0233387165402913</v>
+        <v>0.000251678671970241</v>
       </c>
       <c r="T2">
-        <v>0.0233387165402913</v>
+        <v>0.000251678671970241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +602,10 @@
         <v>0.056076</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1532734190501181</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1532734190501181</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.049608666666667</v>
+        <v>2.049608666666666</v>
       </c>
       <c r="N3">
-        <v>6.148826000000001</v>
+        <v>6.148826</v>
       </c>
       <c r="O3">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462568</v>
       </c>
       <c r="P3">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462569</v>
       </c>
       <c r="Q3">
-        <v>0.03831128519733334</v>
+        <v>0.03831128519733333</v>
       </c>
       <c r="R3">
         <v>0.344801566776</v>
       </c>
       <c r="S3">
-        <v>0.9573046246952972</v>
+        <v>0.1390162021070867</v>
       </c>
       <c r="T3">
-        <v>0.9573046246952972</v>
+        <v>0.1390162021070867</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,40 +664,226 @@
         <v>0.056076</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1532734190501181</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1532734190501181</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.206493</v>
+      </c>
+      <c r="N4">
+        <v>0.619479</v>
+      </c>
+      <c r="O4">
+        <v>0.09137617179715662</v>
+      </c>
+      <c r="P4">
+        <v>0.09137617179715661</v>
+      </c>
+      <c r="Q4">
+        <v>0.003859767156</v>
+      </c>
+      <c r="R4">
+        <v>0.034737904404</v>
+      </c>
+      <c r="S4">
+        <v>0.01400553827106117</v>
+      </c>
+      <c r="T4">
+        <v>0.01400553827106117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M4">
-        <v>0.041443</v>
-      </c>
-      <c r="N4">
-        <v>0.124329</v>
-      </c>
-      <c r="O4">
-        <v>0.01935665876441155</v>
-      </c>
-      <c r="P4">
-        <v>0.01935665876441155</v>
-      </c>
-      <c r="Q4">
-        <v>0.0007746525560000001</v>
-      </c>
-      <c r="R4">
-        <v>0.006971873004</v>
-      </c>
-      <c r="S4">
-        <v>0.01935665876441155</v>
-      </c>
-      <c r="T4">
-        <v>0.01935665876441155</v>
+      <c r="G5">
+        <v>0.10326</v>
+      </c>
+      <c r="H5">
+        <v>0.30978</v>
+      </c>
+      <c r="I5">
+        <v>0.846726580949882</v>
+      </c>
+      <c r="J5">
+        <v>0.8467265809498818</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.003710666666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.011132</v>
+      </c>
+      <c r="O5">
+        <v>0.001642024256586498</v>
+      </c>
+      <c r="P5">
+        <v>0.001642024256586498</v>
+      </c>
+      <c r="Q5">
+        <v>0.00038316344</v>
+      </c>
+      <c r="R5">
+        <v>0.00344847096</v>
+      </c>
+      <c r="S5">
+        <v>0.001390345584616257</v>
+      </c>
+      <c r="T5">
+        <v>0.001390345584616257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.10326</v>
+      </c>
+      <c r="H6">
+        <v>0.30978</v>
+      </c>
+      <c r="I6">
+        <v>0.846726580949882</v>
+      </c>
+      <c r="J6">
+        <v>0.8467265809498818</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.049608666666666</v>
+      </c>
+      <c r="N6">
+        <v>6.148826</v>
+      </c>
+      <c r="O6">
+        <v>0.9069818039462568</v>
+      </c>
+      <c r="P6">
+        <v>0.9069818039462569</v>
+      </c>
+      <c r="Q6">
+        <v>0.21164259092</v>
+      </c>
+      <c r="R6">
+        <v>1.90478331828</v>
+      </c>
+      <c r="S6">
+        <v>0.7679656018391702</v>
+      </c>
+      <c r="T6">
+        <v>0.7679656018391702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.10326</v>
+      </c>
+      <c r="H7">
+        <v>0.30978</v>
+      </c>
+      <c r="I7">
+        <v>0.846726580949882</v>
+      </c>
+      <c r="J7">
+        <v>0.8467265809498818</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.206493</v>
+      </c>
+      <c r="N7">
+        <v>0.619479</v>
+      </c>
+      <c r="O7">
+        <v>0.09137617179715662</v>
+      </c>
+      <c r="P7">
+        <v>0.09137617179715661</v>
+      </c>
+      <c r="Q7">
+        <v>0.02132246718</v>
+      </c>
+      <c r="R7">
+        <v>0.19190220462</v>
+      </c>
+      <c r="S7">
+        <v>0.07737063352609545</v>
+      </c>
+      <c r="T7">
+        <v>0.07737063352609544</v>
       </c>
     </row>
   </sheetData>
